--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_22.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_22.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -432,12 +432,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F2">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -475,12 +475,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F3">
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F4">
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAJAMIR</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F5">
@@ -589,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MULLSUR</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F6">
@@ -632,7 +632,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F7">
@@ -675,7 +675,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F8">
@@ -718,7 +718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>SCYOCAN</t>
         </is>
       </c>
       <c r="F9">
@@ -761,7 +761,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F10">
@@ -804,7 +804,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F11">
@@ -847,7 +847,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F12">
@@ -890,7 +890,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F13">
@@ -933,7 +933,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F14">
@@ -976,7 +976,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F15">
@@ -1019,7 +1019,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F16">
@@ -1062,7 +1062,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1077,12 +1077,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F17">
@@ -1105,7 +1105,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F18">
@@ -1148,7 +1148,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F19">
@@ -1191,7 +1191,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F20">
@@ -1234,7 +1234,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F21">
@@ -1277,7 +1277,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F22">
@@ -1320,7 +1320,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F23">
@@ -1363,7 +1363,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F24">
@@ -1406,7 +1406,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F25">
@@ -1449,7 +1449,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F26">
@@ -1492,7 +1492,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F27">
@@ -1535,7 +1535,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F28">
@@ -1578,7 +1578,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="F29">
@@ -1621,7 +1621,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MICUVAR</t>
         </is>
       </c>
       <c r="F30">
@@ -1664,7 +1664,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1684,21 +1684,279 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>LOPHBUD</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MERLMER</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TORPMAR</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>SOLEVUL</t>
         </is>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
